--- a/result/igdt_output_solve_time.xlsx
+++ b/result/igdt_output_solve_time.xlsx
@@ -440,52 +440,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02293318504509385</v>
+        <v>0.02280618580123185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.04394094017280212</v>
+        <v>0.04384531623601446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.06500946346157184</v>
+        <v>0.06783764088474298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.08893624123549967</v>
+        <v>0.09182767127146492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1099348456600922</v>
+        <v>0.1158635771055797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.130937987863034</v>
+        <v>0.1398635771055797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1549326565859427</v>
+        <v>0.1638635771055797</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1759349877850226</v>
+        <v>0.1878635771055797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1969467096283908</v>
+        <v>0.2148635771055797</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2209341078019358</v>
+        <v>0.2268635771055797</v>
       </c>
     </row>
   </sheetData>

--- a/result/igdt_output_solve_time.xlsx
+++ b/result/igdt_output_solve_time.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,52 +440,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02280618580123185</v>
+        <v>0.0377342678071006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.04384531623601446</v>
+        <v>0.07673877624869944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.06783764088474298</v>
+        <v>0.1158323207760004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.09182767127146492</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.1158635771055797</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.1398635771055797</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.1638635771055797</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.1878635771055797</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.2148635771055797</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.2268635771055797</v>
+        <v>0.1548863298374505</v>
       </c>
     </row>
   </sheetData>
